--- a/Excel Files/DoorNames - EXCEL.xlsx
+++ b/Excel Files/DoorNames - EXCEL.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46D8329-0312-4BA8-8060-A4848F6AE53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvir\Downloads\Excel Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519BF75C-E77F-4133-9DAB-1DEAA4320821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="429">
   <si>
     <t>!!!!!ΣΗΜΑΝΤΙΚΑ!!!!!</t>
   </si>
@@ -1351,9 +1355,6 @@
   </si>
   <si>
     <t>Lecture Room - H3</t>
-  </si>
-  <si>
-    <t>H210</t>
   </si>
   <si>
     <t>H212</t>
@@ -2089,7 +2090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2288,7 +2289,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2625,21 +2626,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +2652,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="44.25" customHeight="1">
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2664,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="93.75" customHeight="1">
+    <row r="3" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2676,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1">
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2688,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="42.75" customHeight="1">
+    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2700,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="152.25" customHeight="1">
+    <row r="6" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2711,7 +2712,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="45.75" customHeight="1">
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2724,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +2736,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="97.5" customHeight="1">
+    <row r="9" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2747,7 +2748,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="98.25" customHeight="1">
+    <row r="10" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2759,7 +2760,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="98.25" customHeight="1">
+    <row r="11" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2771,7 +2772,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="98.25" customHeight="1">
+    <row r="12" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2783,7 +2784,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="109.5" customHeight="1">
+    <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2795,7 +2796,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
@@ -2807,7 +2808,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1">
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2820,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="62.25" customHeight="1">
+    <row r="16" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2831,7 +2832,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="50.25" customHeight="1">
+    <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2844,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="46.5" customHeight="1">
+    <row r="18" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2855,7 +2856,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="74.25" customHeight="1">
+    <row r="19" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2867,7 +2868,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1">
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2879,7 +2880,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="49.5" customHeight="1">
+    <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2897,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.5">
+    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="43.5">
+    <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>48</v>
       </c>
@@ -3088,7 +3089,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -3112,7 +3113,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>53</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>54</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>59</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="43.5">
+    <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>60</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="43.5">
+    <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>63</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>64</v>
       </c>
@@ -3230,7 +3231,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>67</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
@@ -3282,7 +3283,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>69</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>70</v>
       </c>
@@ -3306,7 +3307,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>72</v>
       </c>
@@ -3330,7 +3331,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>73</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>74</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>75</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>76</v>
       </c>
@@ -3382,7 +3383,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3392,7 +3393,7 @@
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>78</v>
       </c>
@@ -3402,7 +3403,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>82</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>85</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>88</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>89</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>92</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>94</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>96</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>99</v>
       </c>
@@ -3520,7 +3521,7 @@
       <c r="C69" s="12"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>100</v>
       </c>
@@ -3530,7 +3531,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" ht="43.5">
+    <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>101</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>103</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="43.5">
+    <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>106</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>108</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="43.5">
+    <row r="75" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>109</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>111</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="43.5">
+    <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>114</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>116</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="43.5">
+    <row r="79" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>119</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>121</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="43.5">
+    <row r="81" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>122</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>124</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="57.75">
+    <row r="83" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>125</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>127</v>
       </c>
@@ -3722,7 +3723,7 @@
       <c r="C84" s="11"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>128</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>131</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>134</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>137</v>
       </c>
@@ -3774,7 +3775,7 @@
       <c r="C88" s="11"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>138</v>
       </c>
@@ -3784,7 +3785,7 @@
       <c r="C89" s="12"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>139</v>
       </c>
@@ -3794,7 +3795,7 @@
       <c r="C90" s="11"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" ht="43.5">
+    <row r="91" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>140</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>142</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="29.25">
+    <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>145</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>148</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>151</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>154</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="29.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>157</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>160</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>163</v>
       </c>
@@ -3916,7 +3917,7 @@
       <c r="C99" s="12"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="1:4" ht="29.25">
+    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>164</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>167</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>170</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>173</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="29.25">
+    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>175</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>178</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>179</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>182</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>184</v>
       </c>
@@ -4042,1503 +4043,1493 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="7" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="10"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="5" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="7" t="s">
+      <c r="C110" s="12"/>
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="10"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="5" t="s">
+      <c r="C111" s="11"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="9"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="7" t="s">
+      <c r="C112" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="D112" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="D130" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="5" t="s">
+    </row>
+    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C114" s="11" t="s">
+      <c r="D183" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="29.25">
-      <c r="A115" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="29.25">
-      <c r="A117" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C124" s="11"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="29.25">
-      <c r="A126" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="43.5">
-      <c r="A128" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="29.25">
-      <c r="A129" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="29.25">
-      <c r="A130" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="29.25">
-      <c r="A132" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="29.25">
-      <c r="A135" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="43.5">
-      <c r="A136" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="29.25">
-      <c r="A142" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="29.25">
-      <c r="A144" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="29.25">
-      <c r="A146" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="29.25">
-      <c r="A148" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="10"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="10"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C160" s="11"/>
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="29.25">
-      <c r="A163" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="29.25">
-      <c r="A168" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C168" s="11" t="s">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D186" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D168" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="29.25">
-      <c r="A178" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="29.25">
-      <c r="A180" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D180" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="29.25">
-      <c r="A182" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="29.25">
-      <c r="A187" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C187" s="12" t="s">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D187" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="5" t="s">
+      <c r="B187" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C188" s="11"/>
-      <c r="D188" s="9"/>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="7" t="s">
+      <c r="C188" s="12"/>
+      <c r="D188" s="10"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="10"/>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="5" t="s">
+      <c r="C189" s="11"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C190" s="11"/>
-      <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="7" t="s">
+      <c r="C190" s="12"/>
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="10"/>
-    </row>
-    <row r="192" spans="1:4" ht="29.25">
-      <c r="A192" s="5" t="s">
+      <c r="C191" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="D191" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C193" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="D193" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D192" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="29.25">
-      <c r="A194" s="5" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C194" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="7" t="s">
+      <c r="C194" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C195" s="12" t="s">
+      <c r="D194" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D195" s="10" t="s">
+    </row>
+    <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="29.25">
-      <c r="A196" s="5" t="s">
+      <c r="B195" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C195" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C196" s="11" t="s">
+      <c r="D195" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D196" s="9" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="7" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="7" t="s">
+      <c r="B196" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C196" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="B197" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C197" s="12" t="s">
+      <c r="D196" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D197" s="10" t="s">
+    </row>
+    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="29.25">
-      <c r="A198" s="5" t="s">
+      <c r="B197" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C198" s="11" t="s">
+      <c r="D197" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D198" s="9" t="s">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="7" t="s">
+      <c r="B198" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C199" s="12" t="s">
+      <c r="D198" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D199" s="10" t="s">
+    </row>
+    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="29.25">
-      <c r="A200" s="5" t="s">
+      <c r="B199" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="D199" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C201" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="D201" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D200" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="29.25">
-      <c r="A202" s="5" t="s">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C202" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="7" t="s">
+      <c r="C202" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="B203" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C203" s="12" t="s">
+      <c r="D202" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D203" s="10" t="s">
+    </row>
+    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="29.25">
-      <c r="A204" s="5" t="s">
+      <c r="B203" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C203" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="D203" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="D205" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D204" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="29.25">
-      <c r="A206" s="5" t="s">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C206" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="7" t="s">
+      <c r="C206" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="B207" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C207" s="12" t="s">
+      <c r="D206" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D207" s="10" t="s">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="5" t="s">
+      <c r="B207" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C207" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C208" s="11" t="s">
+      <c r="D207" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D208" s="9" t="s">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="7" t="s">
+      <c r="B208" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C208" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="B209" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C209" s="12" t="s">
+      <c r="D208" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="D209" s="10" t="s">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="5" t="s">
+      <c r="B209" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C209" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C210" s="11" t="s">
+      <c r="D209" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D210" s="9" t="s">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="7" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="7" t="s">
+      <c r="B210" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C210" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B211" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C211" s="12" t="s">
+      <c r="D210" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D211" s="10" t="s">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="5" t="s">
+      <c r="B211" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C212" s="11" t="s">
+      <c r="D211" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D212" s="9" t="s">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="7" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="7" t="s">
+      <c r="B212" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C212" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B213" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C213" s="12" t="s">
+      <c r="D212" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D213" s="10" t="s">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="5" t="s">
+      <c r="B213" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="C213" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="D213" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D214" s="9" t="s">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="7" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="7" t="s">
+      <c r="B214" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="C214" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="D214" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D215" s="10" t="s">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="5" t="s">
+      <c r="B215" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="7" t="s">
+      <c r="B216" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C217" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="D217" s="10" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="5" t="s">
+      <c r="B217" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="C217" s="11"/>
+      <c r="D217" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C218" s="11"/>
-      <c r="D218" s="9" t="s">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="7"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="10"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="5" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="7"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="10"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="5" t="s">
+      <c r="B219" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C220" s="11"/>
-      <c r="D220" s="9"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Files/DoorNames - EXCEL.xlsx
+++ b/Excel Files/DoorNames - EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvir\Downloads\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519BF75C-E77F-4133-9DAB-1DEAA4320821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815E83F-003F-42E5-B5DC-14A00DB6F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="431">
   <si>
     <t>!!!!!ΣΗΜΑΝΤΙΚΑ!!!!!</t>
   </si>
@@ -2084,6 +2084,12 @@
   </si>
   <si>
     <t>K1 Corridor</t>
+  </si>
+  <si>
+    <t>H210</t>
+  </si>
+  <si>
+    <t>Lecture Room - H4</t>
   </si>
 </sst>
 </file>
@@ -2626,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4044,1492 +4050,1506 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B110" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B111" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="10"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
+      <c r="C111" s="12"/>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B112" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
+      <c r="C112" s="11"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B113" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C113" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D113" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B114" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D114" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
+    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B115" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C115" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D115" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B116" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D116" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
+    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B117" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D117" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C118" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D118" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B119" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C119" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D119" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B120" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C120" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D120" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B121" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D121" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B122" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C122" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D122" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B123" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C123" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D123" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
+      <c r="C124" s="11"/>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B125" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C125" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D125" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
+    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C126" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D126" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="7" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B127" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C127" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D127" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
+    <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B128" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D128" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
+    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B129" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C129" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D129" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
+    <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B130" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D130" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B131" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C131" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
+    <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C132" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D132" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="7" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B133" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C133" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D133" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C134" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D134" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
+    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B135" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C135" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D135" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
+    <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C136" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D136" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B137" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C137" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D137" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C138" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D138" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="7" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B139" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C139" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D139" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B140" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C140" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D140" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B141" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C141" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D141" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
+    <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B142" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C142" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D142" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B143" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C143" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D143" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
+    <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B144" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C144" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D144" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B145" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C145" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D145" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
+    <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B146" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C146" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D145" s="9"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="7" t="s">
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B147" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C147" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
+    <row r="148" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B148" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C148" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="7" t="s">
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B149" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C149" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D149" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B150" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C150" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D150" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="7" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B151" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C151" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D151" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B152" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C152" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D152" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="7" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B153" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C153" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D153" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C154" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D154" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="7" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B155" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C155" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D155" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B156" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C156" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D156" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B157" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="10"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
+      <c r="C157" s="12"/>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C157" s="11"/>
-      <c r="D157" s="9"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="7" t="s">
+      <c r="C158" s="11"/>
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B159" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="10"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
+      <c r="C159" s="12"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="7" t="s">
+      <c r="C160" s="11"/>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B161" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C161" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D161" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B162" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C162" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D162" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="7" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B163" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C163" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D163" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C164" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D164" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B165" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C165" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D165" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="5" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B166" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C166" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D166" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B167" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C167" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D167" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C168" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D168" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B169" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C169" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D169" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C170" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D170" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B171" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C171" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D171" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C172" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D172" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="7" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B173" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C173" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D173" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C174" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D174" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="7" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B175" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C175" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D175" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B176" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C176" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D176" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="7" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B177" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C177" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D177" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
+    <row r="178" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B178" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C178" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D178" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="7" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B179" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C179" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="D179" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
+    <row r="180" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B180" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C180" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D180" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="7" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B181" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C181" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D181" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="5" t="s">
+    <row r="182" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B182" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C182" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D182" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="7" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B183" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C183" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D183" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="5" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B184" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C184" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D184" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="7" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B185" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C185" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D185" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="5" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B186" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C186" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D186" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A186" s="7" t="s">
+    <row r="187" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B187" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C187" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D187" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="5" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B188" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C187" s="11"/>
-      <c r="D187" s="9"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="7" t="s">
+      <c r="C188" s="11"/>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B189" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C188" s="12"/>
-      <c r="D188" s="10"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="5" t="s">
+      <c r="C189" s="12"/>
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B190" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C189" s="11"/>
-      <c r="D189" s="9"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="7" t="s">
+      <c r="C190" s="11"/>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B191" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="10"/>
-    </row>
-    <row r="191" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="5" t="s">
+      <c r="C191" s="12"/>
+      <c r="D191" s="10"/>
+    </row>
+    <row r="192" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B192" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C192" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D192" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="7" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B193" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C193" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D193" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="5" t="s">
+    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B194" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C194" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D194" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="7" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B195" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C195" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D195" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="5" t="s">
+    <row r="196" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B196" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C196" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D196" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="7" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B197" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C197" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D197" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A197" s="5" t="s">
+    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B198" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C198" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D198" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="7" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B199" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C199" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D199" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="5" t="s">
+    <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B200" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C200" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D200" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="7" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B201" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C201" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D201" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A201" s="5" t="s">
+    <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B202" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C202" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D202" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="7" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B203" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C203" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D203" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A203" s="5" t="s">
+    <row r="204" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B204" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C204" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="D204" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="7" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B205" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C205" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D205" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="5" t="s">
+    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B206" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C206" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D206" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="7" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B207" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C207" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D207" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="5" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B208" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C208" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="D208" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="7" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B209" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C209" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D208" s="10" t="s">
+      <c r="D209" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="5" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B210" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C210" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D210" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="7" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B211" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C211" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="D211" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="5" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B212" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C212" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D212" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="7" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B213" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C213" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D213" s="10" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="5" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B214" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C214" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D214" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="7" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B215" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="C215" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D215" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="5" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B216" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C216" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D216" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" s="7" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B217" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C217" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D217" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="5" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B218" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C217" s="11"/>
-      <c r="D217" s="9" t="s">
+      <c r="C218" s="11"/>
+      <c r="D218" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="7"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="10"/>
-    </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="7"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="10"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B220" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C219" s="11"/>
-      <c r="D219" s="9"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Files/DoorNames - EXCEL.xlsx
+++ b/Excel Files/DoorNames - EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvir\Downloads\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815E83F-003F-42E5-B5DC-14A00DB6F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E93CB-352A-4E38-B0AE-6714854EC431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="433">
   <si>
     <t>!!!!!ΣΗΜΑΝΤΙΚΑ!!!!!</t>
   </si>
@@ -2090,13 +2090,19 @@
   </si>
   <si>
     <t>Lecture Room - H4</t>
+  </si>
+  <si>
+    <t>H210a</t>
+  </si>
+  <si>
+    <t>H210b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2164,6 +2170,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2632,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4051,7 +4063,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>429</v>
@@ -4064,1494 +4076,1509 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
+      <c r="C111" s="11"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="10"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
+      <c r="C112" s="12"/>
+      <c r="D112" s="10"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B113" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="9"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="7" t="s">
+      <c r="C113" s="11"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B114" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C114" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D114" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B115" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C115" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D115" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B116" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C116" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D116" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B117" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C117" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D117" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="7" t="s">
+    <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B118" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C118" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D118" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B119" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C119" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D119" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B120" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D120" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C121" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D121" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B122" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C122" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D122" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B123" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C123" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D123" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B124" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C124" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D124" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="11"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
+      <c r="C125" s="11"/>
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B126" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C126" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D126" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
+    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C127" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D127" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C128" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D128" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
+    <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C129" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D129" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+    <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B130" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C130" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D130" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
+    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C131" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D131" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="7" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B132" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C132" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D132" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
+    <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B133" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B134" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C134" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D134" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B135" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C135" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D135" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
+    <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B136" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C136" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D136" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
+    <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C137" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D137" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B138" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C138" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D138" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C139" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D139" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B140" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C140" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D140" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B141" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C141" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D141" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B142" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C142" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
+    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B143" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C143" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B144" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C144" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D144" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
+    <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B145" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C145" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D145" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="7" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B146" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C146" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D146" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
+    <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B147" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C147" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="7" t="s">
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B148" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C148" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D148" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
+    <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B149" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C149" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="7" t="s">
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B150" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C150" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D150" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B151" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C151" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D151" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="7" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B152" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C152" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D152" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C153" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="7" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B154" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C154" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D154" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C155" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D155" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B156" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C156" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D156" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B157" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C157" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D157" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B158" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="10"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
+      <c r="C158" s="12"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
+      <c r="C159" s="11"/>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B160" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="10"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="5" t="s">
+      <c r="C160" s="12"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B161" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C160" s="11"/>
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
+      <c r="C161" s="11"/>
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B162" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C162" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D162" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B163" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C163" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D163" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B164" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C164" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D164" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="5" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C165" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C166" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D166" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="5" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C167" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D167" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B168" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C168" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D168" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C169" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D169" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B170" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C170" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D170" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C171" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D171" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="7" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B172" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C172" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D172" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C173" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D173" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B174" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C174" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D174" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C175" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D175" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="7" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B176" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C176" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="D176" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B177" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C177" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D177" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="7" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B178" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C178" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D178" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
+    <row r="179" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B179" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C179" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D179" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="7" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B180" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C180" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D180" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="5" t="s">
+    <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B181" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C181" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D181" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="7" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B182" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C182" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D182" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
+    <row r="183" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B183" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C183" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D183" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B184" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C184" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D184" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="5" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B185" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C185" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D185" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="7" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B186" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C186" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D186" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="5" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B187" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C187" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D187" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A187" s="7" t="s">
+    <row r="188" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B188" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C188" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D188" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="5" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B189" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C188" s="11"/>
-      <c r="D188" s="9"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="7" t="s">
+      <c r="C189" s="11"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B190" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="10"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="5" t="s">
+      <c r="C190" s="12"/>
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B191" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C190" s="11"/>
-      <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="7" t="s">
+      <c r="C191" s="11"/>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B192" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="10"/>
-    </row>
-    <row r="192" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="5" t="s">
+      <c r="C192" s="12"/>
+      <c r="D192" s="10"/>
+    </row>
+    <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B193" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C193" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D193" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="7" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B194" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C194" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D194" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="5" t="s">
+    <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B195" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C195" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D195" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="7" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B196" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C196" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D196" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="5" t="s">
+    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B197" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C197" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D197" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="7" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B198" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C198" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D198" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A198" s="5" t="s">
+    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B199" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C199" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D199" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="7" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B200" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C200" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D200" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="5" t="s">
+    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B201" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C201" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D201" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="7" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B202" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C202" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D202" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="5" t="s">
+    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B203" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C203" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D203" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="7" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B204" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C204" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="D204" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A204" s="5" t="s">
+    <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B205" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C205" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="D205" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="7" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B206" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C206" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D206" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" s="5" t="s">
+    <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B207" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C207" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="D207" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="7" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B208" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C208" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="D208" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="5" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B209" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C209" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D209" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="7" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B210" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C210" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D210" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="5" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B211" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C211" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="D211" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="7" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B212" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C212" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D212" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="5" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B213" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C213" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D213" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="7" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B214" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="C214" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D214" s="10" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="5" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B215" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C215" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="D215" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="7" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B216" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="C216" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="D216" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" s="5" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B217" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C217" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="D216" s="9" t="s">
+      <c r="D217" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="7" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B218" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C218" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D218" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="5" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B219" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C218" s="11"/>
-      <c r="D218" s="9" t="s">
+      <c r="C219" s="11"/>
+      <c r="D219" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="7"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="10"/>
-    </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="7"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="10"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B221" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C220" s="11"/>
-      <c r="D220" s="9"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Files/DoorNames - EXCEL.xlsx
+++ b/Excel Files/DoorNames - EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvir\Downloads\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E93CB-352A-4E38-B0AE-6714854EC431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5748F18A-06A5-4265-830D-2AA273964C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,59 +199,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> όταν κάνετε </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>εξαγωγή</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve">, σιγουρευτείτε ότι </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>ονομάζετε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> το αρχείο </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>DoorNames.csv</t>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> ΔΕΝ ΠΕΙΡΑΖΟΥΜΕ την ΠΡΩΤΗ ΣΤΗΛΗ</t>
     </r>
   </si>
   <si>
@@ -264,15 +220,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> ΔΕΝ ΠΕΙΡΑΖΟΥΜΕ την ΠΡΩΤΗ ΣΤΗΛΗ</t>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Η ΠΡΩΤΗ ΣΤΗΛΗ αναπαριστά την αληθινή αίθουσα στο κτήριο και οτιδήποτε γραφτεί στις ΕΠΟΜΕΝΕΣ ΣΤΗΛΕΣ θα εμφανιστεί στην αντίστοιχη αίθουσα στο πρόγραμμα, άρα π.χ. ό,τι θέλετε να εμφανίζεται έξω από την αίθουσα Α113, θα πρέπει να βρείτε την Α113 στην πρώτη στήλη και μετά να γράψετε τα περιέχομενα που θα εμφανίζονται στην αίθουσα στις επόμενες 3 στήλες ΔΕΞΙΑ.</t>
     </r>
   </si>
   <si>
@@ -285,15 +241,32 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Η ΠΡΩΤΗ ΣΤΗΛΗ αναπαριστά την αληθινή αίθουσα στο κτήριο και οτιδήποτε γραφτεί στις ΕΠΟΜΕΝΕΣ ΣΤΗΛΕΣ θα εμφανιστεί στην αντίστοιχη αίθουσα στο πρόγραμμα, άρα π.χ. ό,τι θέλετε να εμφανίζεται έξω από την αίθουσα Α113, θα πρέπει να βρείτε την Α113 στην πρώτη στήλη και μετά να γράψετε τα περιέχομενα που θα εμφανίζονται στην αίθουσα στις επόμενες 3 στήλες ΔΕΞΙΑ.</t>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>ΔΕΝ ΑΛΛΑΖΟΥΜΕ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> ΤΗΝ ΣΕΙΡΑ ΤΩΝ ΣΤΗΛΩΝ</t>
     </r>
   </si>
   <si>
@@ -306,32 +279,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>ΔΕΝ ΑΛΛΑΖΟΥΜΕ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> ΤΗΝ ΣΕΙΡΑ ΤΩΝ ΣΤΗΛΩΝ</t>
+      <t>7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Στις επόμενες 3 ΣΤΗΛΕΣ, μπορεί να γραφτεί οτιδήποτε. </t>
     </r>
   </si>
   <si>
@@ -344,15 +300,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>7)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Στις επόμενες 3 ΣΤΗΛΕΣ, μπορεί να γραφτεί οτιδήποτε. </t>
+      <t>8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Τα περιεχόμενα της 2ης στήλης(ΑΡΙΘΜΟΣ ΑΙΘΟΥΣΑΣ), π.χ. Α113, θα εμφανίζονται πιο πάνω από όλες τις πληροφορίες.</t>
     </r>
   </si>
   <si>
@@ -365,15 +321,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>8)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Τα περιεχόμενα της 2ης στήλης(ΑΡΙΘΜΟΣ ΑΙΘΟΥΣΑΣ), π.χ. Α113, θα εμφανίζονται πιο πάνω από όλες τις πληροφορίες.</t>
+      <t>9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Τα περιεχόμενα της 3ης στήλης(ΟΝΟΜΑ ΑΙΘΟΥΣΑΣ), π.χ. "Lecture Room - Αίθουσα Διδασκαλίας" θα εμφανίζονται στην μέση των πληροφοριών.</t>
     </r>
   </si>
   <si>
@@ -386,15 +342,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Τα περιεχόμενα της 3ης στήλης(ΟΝΟΜΑ ΑΙΘΟΥΣΑΣ), π.χ. "Lecture Room - Αίθουσα Διδασκαλίας" θα εμφανίζονται στην μέση των πληροφοριών.</t>
+      <t>10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Τα περιεχόμενα της 4ης στήλης(ΠΑΡΑΠΑΝΩ ΠΛΗΡΟΦΟΡΙΕΣ) θα εμφανίζονται χαμηλότερα από όλες τις πληροφορίες.</t>
     </r>
   </si>
   <si>
@@ -407,15 +363,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Τα περιεχόμενα της 4ης στήλης(ΠΑΡΑΠΑΝΩ ΠΛΗΡΟΦΟΡΙΕΣ) θα εμφανίζονται χαμηλότερα από όλες τις πληροφορίες.</t>
+      <t>13)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Ελέγχουμε τις αίθουσες που αλλάζουμε ότι ανανεώθηκαν οι πληροφορίες σωστά.</t>
     </r>
   </si>
   <si>
@@ -428,15 +384,58 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>11)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Γίνεται να μείνουν πεδία/στήλες άδειες, δεν είναιι υποχρεωτική η εισαγωγή πληροφορίας.</t>
+      <t>14)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Ελέγχουμε ότι το αρχείο </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>δεν έχει παράξενα σύμβολα</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>μετά</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> την </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>εξαγωγή</t>
     </r>
   </si>
   <si>
@@ -449,7 +448,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>12)</t>
+      <t>17)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Κάνουμε </t>
     </r>
     <r>
       <rPr>
@@ -458,66 +465,32 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>Πάντα ελέγχουμε όταν κάνουμε αλλαγέ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve">ς, </t>
+      <t>εξαγωγή</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> αρχείο </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>μετά</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> από ένα </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>5-10λεπτο</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve">, ότι οι αλλαγές </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>ανανεώθηκαν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> στο πρόγραμμα και δεν υπάρχουν προβλήματα. (Εννοείται ελέγχουμε μετά το ανέβασμα του αρχείου στο repository)</t>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>CSV-Υπολογιστικό Φύλλο με UTF-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
@@ -530,53 +503,1328 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>13)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Ελέγχουμε τις αίθουσες που αλλάζουμε ότι ανανεώθηκαν οι πληροφορίες σωστά.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>18)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>ΥΠΟΧΡΕΩΤΙΚΑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> διαχωρισμένο με ','(ΚΟΜΜΑ): </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Εξαγωγή/Αποθήκευση Ως</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>14)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Ελέγχουμε ότι το αρχείο </t>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>CSV UTF-8 (Comma delimited)</t>
+    </r>
+  </si>
+  <si>
+    <t>!!!!!ΔΕΝ ΑΛΛΑΖΟΥΜΕ ΑΥΤΗΝ ΤΗΝ ΣΤΗΛΗ!!!!!</t>
+  </si>
+  <si>
+    <t>ΑΡΙΘΜΟΣ ΑΙΘΟΥΣΑΣ</t>
+  </si>
+  <si>
+    <t>ΟΝΟΜΑ ΑΙΘΟΥΣΑΣ</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΠΑΝΩ ΠΛΗΡΟΦΟΡΙΕΣ</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Τηλεπικοινωνιών και Δικτύων</t>
+  </si>
+  <si>
+    <t>Networking and Communications Lab</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Ψηφιακής Σχεδίασης</t>
+  </si>
+  <si>
+    <t>Digital Design Lab - 2</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>Digital Design Lab - 1</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>Αίθουσα Διδασκαλίας</t>
+  </si>
+  <si>
+    <t>Lecture Room - A1</t>
+  </si>
+  <si>
+    <t>A113</t>
+  </si>
+  <si>
+    <t>A115</t>
+  </si>
+  <si>
+    <t>&lt;color=#006BFF&gt;Τμήμα Επιστήμης και Μηχανικής Υλικών / Department of Materials Science and Engineering&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Αίθουσα Διδασκαλίας / Lecture Room - A2</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>A119</t>
+  </si>
+  <si>
+    <t>Lecture Room - A3</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>Lecture Room - A4</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>Εκπαιδευτικό Εργαστήριο Η/Υ</t>
+  </si>
+  <si>
+    <t>Computer Room</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>Αίθουσα Διδασκαλίας με Η/Υ</t>
+  </si>
+  <si>
+    <t>Lecture Room</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μεταπτυχιακοί Φοιτητές / Graduate Students </t>
+  </si>
+  <si>
+    <t>B110</t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>B112</t>
+  </si>
+  <si>
+    <t>B113</t>
+  </si>
+  <si>
+    <t>B115</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>E112</t>
+  </si>
+  <si>
+    <t>H101</t>
+  </si>
+  <si>
+    <t>H102</t>
+  </si>
+  <si>
+    <t>H103</t>
+  </si>
+  <si>
+    <t>H104</t>
+  </si>
+  <si>
+    <t>Αποθήκη</t>
+  </si>
+  <si>
+    <t>Storage Room</t>
+  </si>
+  <si>
+    <t>H105</t>
+  </si>
+  <si>
+    <t>Κυλικείο</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>H106</t>
+  </si>
+  <si>
+    <t>Σύλλογος Φοιτητών ΤΕΥ</t>
+  </si>
+  <si>
+    <t>CSD Students' Association</t>
+  </si>
+  <si>
+    <t>H107</t>
+  </si>
+  <si>
+    <t>H108</t>
+  </si>
+  <si>
+    <t>Τεχνική Υποστήριξη</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t>H109</t>
+  </si>
+  <si>
+    <t>Front Door</t>
+  </si>
+  <si>
+    <t>H109b</t>
+  </si>
+  <si>
+    <t>Back Door</t>
+  </si>
+  <si>
+    <t>H110</t>
+  </si>
+  <si>
+    <t>Αποθήκη Υλικού</t>
+  </si>
+  <si>
+    <t>Materials Storage</t>
+  </si>
+  <si>
+    <t>H112</t>
+  </si>
+  <si>
+    <t>H114</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>ΕΔΙΠ: Σταμάτης Σταματιάδης / Teaching Personnel: Stamatis Stamatiadis</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>Αίθουσα Μηχανών</t>
+  </si>
+  <si>
+    <t>Machine Room</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>ΕΔΙΠ: Εμμανουήλ Τυλλιανάκης / Teaching Personnel: Emmanuel Tyllianakis</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>Καθηγητής: Γεώργιος Κιοσέογλου / Professor: George Kioseoglou</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>Συντήρηση</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>Αναπληρωτής Καθηγητής: Ιωάννης Ρεμεδιάκης / Associate Professor: Ioannis Remediakis</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>Μεταπτυχιακό Σπουδαστήριο</t>
+  </si>
+  <si>
+    <t>Graduate Students</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>Αναπληρωτής Καθηγητής: Γεώργιος Κοπιδάκης / Associate Professor: George Kopidakis</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>Αναπληρωτής Καθηγητής: Ανδρέας Λυμπεράτος / Associate Professor: Andreas Lyberatos</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>Καθηγήτρια:Μαρία Καφεσάκη , Αναπληρωτής Καθηγητής: Δημήτριος Παπάζογλου / Professor: Maria Kafesaki , Associate Professor: Dimitrios Papazoglou</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>Γιάννης Σουρλαντζής</t>
+  </si>
+  <si>
+    <t>Yannis Sourlantzis</t>
+  </si>
+  <si>
+    <t>B217</t>
+  </si>
+  <si>
+    <t>Νίκος Κρασσάς</t>
+  </si>
+  <si>
+    <t>Nikolas Krassas</t>
+  </si>
+  <si>
+    <t>B219</t>
+  </si>
+  <si>
+    <t>Παναγιώτης Βαβίλης</t>
+  </si>
+  <si>
+    <t>Panagiotis Vavilis</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>B223</t>
+  </si>
+  <si>
+    <t>B225</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>Επίκουρος Καθηγητής: Δημήτριος Τζεράνης / Assistant Professor: Dimitrios Tzeranis</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>Μαίρη Μαμαλάκη</t>
+  </si>
+  <si>
+    <t>Maria Mamalaki</t>
+  </si>
+  <si>
+    <t>E201</t>
+  </si>
+  <si>
+    <t>Γραμματεία Προπτυχιακών Σπουδών / Office of Undergraduate Studies</t>
+  </si>
+  <si>
+    <t>Στέλλα Συντιχάκη , Δέσποινα Χατζάκη / Stella Syntichaki , Despoina Chatzaki</t>
+  </si>
+  <si>
+    <t>E202</t>
+  </si>
+  <si>
+    <t>Γραμματεία Μεταπτυχιακών Σπουδών</t>
+  </si>
+  <si>
+    <t>Office of Graduate Studies</t>
+  </si>
+  <si>
+    <t>E203</t>
+  </si>
+  <si>
+    <t>Θυρίδες - Φωτοτυπικό</t>
+  </si>
+  <si>
+    <t>Copy Room</t>
+  </si>
+  <si>
+    <t>E204</t>
+  </si>
+  <si>
+    <t>Γραφείο Υποψήφιων Διδακτόρων</t>
+  </si>
+  <si>
+    <t>Office of Doctoral Candidates</t>
+  </si>
+  <si>
+    <t>E205</t>
+  </si>
+  <si>
+    <t>Τμήμα Επιστήμης Υπολογιστών - Αρχείο</t>
+  </si>
+  <si>
+    <t>Department of Computer Science - Registry</t>
+  </si>
+  <si>
+    <t>E206</t>
+  </si>
+  <si>
+    <t>Νόνη Ριζοπούλου</t>
+  </si>
+  <si>
+    <t>Noni Rizopoulou</t>
+  </si>
+  <si>
+    <t>E207</t>
+  </si>
+  <si>
+    <t>E208</t>
+  </si>
+  <si>
+    <t>ΑΙΘΟΥΣΑ ΣΥΝΕΔΡΙΩΝ - ΜΟΝΑΔΑ ΙΣΟΤΙΜΗΣ ΠΡΟΣΒΑΣΗΣ</t>
+  </si>
+  <si>
+    <t>Conference Room - Peer Access Unit</t>
+  </si>
+  <si>
+    <t>E210</t>
+  </si>
+  <si>
+    <t>Παύλος Μαθιουδάκης</t>
+  </si>
+  <si>
+    <t>Pavlos Mathioudakis</t>
+  </si>
+  <si>
+    <t>H201</t>
+  </si>
+  <si>
+    <t>Ομάδα Καθαριότητας</t>
+  </si>
+  <si>
+    <t>Cleaning Team</t>
+  </si>
+  <si>
+    <t>H202</t>
+  </si>
+  <si>
+    <t>Lecture Room - H1</t>
+  </si>
+  <si>
+    <t>H203</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Επεξεργασίας Δεδομένων / Data Processing Laboratory</t>
+  </si>
+  <si>
+    <t>Athanasia Margetousaki, Harria Papadaki, Maria Vitsaki, Glykeria Fragioudaki</t>
+  </si>
+  <si>
+    <t>H204</t>
+  </si>
+  <si>
+    <t>H205</t>
+  </si>
+  <si>
+    <t>Ομάδα Δαίδαλος - 0xdeadalu5</t>
+  </si>
+  <si>
+    <t>CTF(Capture The Flag) Team</t>
+  </si>
+  <si>
+    <t>H206</t>
+  </si>
+  <si>
+    <t>Lecture Rooom - H2</t>
+  </si>
+  <si>
+    <t>H208</t>
+  </si>
+  <si>
+    <t>Lecture Room - H3</t>
+  </si>
+  <si>
+    <t>H212</t>
+  </si>
+  <si>
+    <t>H214</t>
+  </si>
+  <si>
+    <t>H216</t>
+  </si>
+  <si>
+    <t>K201</t>
+  </si>
+  <si>
+    <t>Αίθουσα Συναντήσεων</t>
+  </si>
+  <si>
+    <t>Meeting Room</t>
+  </si>
+  <si>
+    <t>K202</t>
+  </si>
+  <si>
+    <t>Αίθουσα Τηλεκπαίδευσης</t>
+  </si>
+  <si>
+    <t>Distance Learning Classroom</t>
+  </si>
+  <si>
+    <t>K203</t>
+  </si>
+  <si>
+    <t>Γιώργος Βιτσάκης / Giorgos Vitsakis</t>
+  </si>
+  <si>
+    <t>K204</t>
+  </si>
+  <si>
+    <t>K205</t>
+  </si>
+  <si>
+    <t>Γρηγόρης Τζανοδασκαλάκης / Grigoris Tzanodaskalakis</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>K207</t>
+  </si>
+  <si>
+    <t>Μιχάλης Μουνταντωνάκης</t>
+  </si>
+  <si>
+    <t>Michalis Mountantonakis</t>
+  </si>
+  <si>
+    <t>K208</t>
+  </si>
+  <si>
+    <t>K209</t>
+  </si>
+  <si>
+    <t>Επισκέπτης Καθηγητής</t>
+  </si>
+  <si>
+    <t>Visiting Faculty</t>
+  </si>
+  <si>
+    <t>K210</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Ανάλυσης Δεδομένων</t>
+  </si>
+  <si>
+    <t>Data Analysis Laboratory</t>
+  </si>
+  <si>
+    <t>K211</t>
+  </si>
+  <si>
+    <t>Φραγκιαδάκης Γιάννης</t>
+  </si>
+  <si>
+    <t>Fragkiadakis Yannis</t>
+  </si>
+  <si>
+    <t>K213</t>
+  </si>
+  <si>
+    <t>K212</t>
+  </si>
+  <si>
+    <t>K214</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Παράλληλου και Κατανεμημένου Υπολογισμού</t>
+  </si>
+  <si>
+    <t>Parallel and Distributed Computing Laboratory</t>
+  </si>
+  <si>
+    <t>K215</t>
+  </si>
+  <si>
+    <t>Γιώργος Παπαγιαννάκης</t>
+  </si>
+  <si>
+    <t>George Papagiannakis</t>
+  </si>
+  <si>
+    <t>K216</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Μηχανικής Πληροφοριακών και Γνωσιακών Συστημάτων / Information and Knowledge Systems Engineering Laboratory</t>
+  </si>
+  <si>
+    <t>Εργαστήριο 3D Εκτύπωσης και Κατασκευών / 3D Printing &amp; Makers' Lab</t>
+  </si>
+  <si>
+    <t>K217</t>
+  </si>
+  <si>
+    <t>Αίθουσα Συναντήσεων (+ Καρέκλες &amp; Κ200 εκτυπωτής)</t>
+  </si>
+  <si>
+    <t>Meeting Room (+ Chairs &amp; Κ200 εκτυπωτής)</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Μηχανικής Πληροφοριακών και Γνωσιακών Συστημάτων</t>
+  </si>
+  <si>
+    <t>Information and Knowledge Systems Engineering Laboratory</t>
+  </si>
+  <si>
+    <t>K219</t>
+  </si>
+  <si>
+    <t>K220</t>
+  </si>
+  <si>
+    <t>K221</t>
+  </si>
+  <si>
+    <t>Γιάννης Τζίτζικας</t>
+  </si>
+  <si>
+    <t>Yannis Tzitzikas</t>
+  </si>
+  <si>
+    <t>K223</t>
+  </si>
+  <si>
+    <t>Μάριος Πιτικάκης</t>
+  </si>
+  <si>
+    <t>Marios Pitikakis</t>
+  </si>
+  <si>
+    <t>K225</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Ανάλυσης Δεδομένων / Data Analysis Laboratory</t>
+  </si>
+  <si>
+    <t>Μεταδιδακτορικοί Ερευνητές / Postdoctoral Researchers</t>
+  </si>
+  <si>
+    <t>K227</t>
+  </si>
+  <si>
+    <t>Γραμματεία , Μεταδιδακτορικός Ερευνητής / Secretariat , Postdoctoral Researcher</t>
+  </si>
+  <si>
+    <t>B301</t>
+  </si>
+  <si>
+    <t>B302</t>
+  </si>
+  <si>
+    <t>B303</t>
+  </si>
+  <si>
+    <t>B304</t>
+  </si>
+  <si>
+    <t>Τσαγκατάκης Γρηγόριος</t>
+  </si>
+  <si>
+    <t>Tsagkatakis Grigorios</t>
+  </si>
+  <si>
+    <t>B305</t>
+  </si>
+  <si>
+    <t>B306</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Επεξεργασίας Σημάτων και Εικόνων</t>
+  </si>
+  <si>
+    <t>Signal and Image Processing Laboratory</t>
+  </si>
+  <si>
+    <t>B307</t>
+  </si>
+  <si>
+    <t>B308</t>
+  </si>
+  <si>
+    <t>B309</t>
+  </si>
+  <si>
+    <t>Πάνος Τσακαλίδης</t>
+  </si>
+  <si>
+    <t>Panos Tsakalides</t>
+  </si>
+  <si>
+    <t>B310</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Δικτύων και Κινητών Υπολογιστικών Συστημάτων</t>
+  </si>
+  <si>
+    <t>B311</t>
+  </si>
+  <si>
+    <t>Λεωνίδης Αστέριος</t>
+  </si>
+  <si>
+    <t>Leonidis Asterios</t>
+  </si>
+  <si>
+    <t>B312</t>
+  </si>
+  <si>
+    <t>B313</t>
+  </si>
+  <si>
+    <t>Θανάσης Μουχτάρης</t>
+  </si>
+  <si>
+    <t>Thanasis Mouchtaris</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>Αίθουσα Συνεδριάσεων Γενικής Συνέλευσης</t>
+  </si>
+  <si>
+    <t>Faculty Meeting Room</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>Μαρία Παπαδοπούλη</t>
+  </si>
+  <si>
+    <t>Maria Papadopouli</t>
+  </si>
+  <si>
+    <t>B316</t>
+  </si>
+  <si>
+    <t>B317</t>
+  </si>
+  <si>
+    <t>Ξενοφώντας Δημητρόπουλος</t>
+  </si>
+  <si>
+    <t>Xenofontas Dimitropoulos</t>
+  </si>
+  <si>
+    <t>B318</t>
+  </si>
+  <si>
+    <t>B319</t>
+  </si>
+  <si>
+    <t>Γεώργιος Τζιρίτας</t>
+  </si>
+  <si>
+    <t>Georgios Tziritas</t>
+  </si>
+  <si>
+    <t>B320</t>
+  </si>
+  <si>
+    <t>B321</t>
+  </si>
+  <si>
+    <t>B322</t>
+  </si>
+  <si>
+    <t>B323</t>
+  </si>
+  <si>
+    <t>B325</t>
+  </si>
+  <si>
+    <t>B327</t>
+  </si>
+  <si>
+    <t>Απόστολος Τραγανίτης</t>
+  </si>
+  <si>
+    <t>Apostolos Traganitis</t>
+  </si>
+  <si>
+    <t>B329</t>
+  </si>
+  <si>
+    <t>Νικόλαος Κομοντάκης</t>
+  </si>
+  <si>
+    <t>Nikolaos Komontakis</t>
+  </si>
+  <si>
+    <t>E301</t>
+  </si>
+  <si>
+    <t>Επιστημονικός Συνεργάτης / Visiting Scientist</t>
+  </si>
+  <si>
+    <t>Νικόλαος Τσατσάκης / Nikolaos Tsatsakis</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
+    <t>E303</t>
+  </si>
+  <si>
+    <t>Μαρίνα Μπιτσάκη &amp; Μάνος Καμαριανάκης</t>
+  </si>
+  <si>
+    <t>Marina Bitsaki &amp; Manos Kamarianakis</t>
+  </si>
+  <si>
+    <t>E304</t>
+  </si>
+  <si>
+    <t>Προϊσταμένη Γραμματείας / Administration</t>
+  </si>
+  <si>
+    <t>Ρένα Καλαϊτζάκη / Rena Kalaitzaki</t>
+  </si>
+  <si>
+    <t>E305</t>
+  </si>
+  <si>
+    <t>Μαρία Σαβιολάκη</t>
+  </si>
+  <si>
+    <t>Maria Saviolaki</t>
+  </si>
+  <si>
+    <t>E306</t>
+  </si>
+  <si>
+    <t>Πρόεδρος / Chair</t>
+  </si>
+  <si>
+    <t>Κωνσταντίνος Μαγκούτης / Kostas Magoutis</t>
+  </si>
+  <si>
+    <t>E307</t>
+  </si>
+  <si>
+    <t>Άννα Σφακιανάκη</t>
+  </si>
+  <si>
+    <t>Anna Sfakianaki</t>
+  </si>
+  <si>
+    <t>E308</t>
+  </si>
+  <si>
+    <t>E309</t>
+  </si>
+  <si>
+    <t>Αίθουσα Σεμιναρίων</t>
+  </si>
+  <si>
+    <t>Seminar Room - E2</t>
+  </si>
+  <si>
+    <t>E310</t>
+  </si>
+  <si>
+    <t>E311</t>
+  </si>
+  <si>
+    <t>E313</t>
+  </si>
+  <si>
+    <t>Seminar Room - E1</t>
+  </si>
+  <si>
+    <t>E315</t>
+  </si>
+  <si>
+    <t>E317</t>
+  </si>
+  <si>
+    <t>Αίθουσα Ελέγχου</t>
+  </si>
+  <si>
+    <t>Control Room</t>
+  </si>
+  <si>
+    <t>H301</t>
+  </si>
+  <si>
+    <t>Μεταδιδακτορικοί Φοιτητές</t>
+  </si>
+  <si>
+    <t>Postgraduate Students</t>
+  </si>
+  <si>
+    <t>H302</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Πολυμέσων - Επεξεργασία Σήματος Φωνής</t>
+  </si>
+  <si>
+    <t>Multimedia Informatics Lab (MIL) Speech Signal Processing</t>
+  </si>
+  <si>
+    <t>H303</t>
+  </si>
+  <si>
+    <t>Επισκέπτης Καθηγητής / Visiting Faculty</t>
+  </si>
+  <si>
+    <t>Γεώργιος Καφεντζής / Georgios Kafentzis</t>
+  </si>
+  <si>
+    <t>H304</t>
+  </si>
+  <si>
+    <t>H305</t>
+  </si>
+  <si>
+    <t>Γιάννης Στυλιανού</t>
+  </si>
+  <si>
+    <t>Yannis Stylianou</t>
+  </si>
+  <si>
+    <t>H306</t>
+  </si>
+  <si>
+    <t>ΠΛΑΤΩΝ - Εργαστήριο Γλωσσών και Εργαλείων Προγραμματισμού</t>
+  </si>
+  <si>
+    <t>PLATO - Programming Languages and Tools Laboratory</t>
+  </si>
+  <si>
+    <t>H307</t>
+  </si>
+  <si>
+    <t>Επισκέπτης Καθηγητής / Visiting Professor</t>
+  </si>
+  <si>
+    <t>Νίκος Σιαφάκας / Nikos Siafakas</t>
+  </si>
+  <si>
+    <t>H308</t>
+  </si>
+  <si>
+    <t>H309</t>
+  </si>
+  <si>
+    <t>Χαρίδημος Κονδυλάκης</t>
+  </si>
+  <si>
+    <t>Haridimos Kondylakis</t>
+  </si>
+  <si>
+    <t>H310</t>
+  </si>
+  <si>
+    <t>H311</t>
+  </si>
+  <si>
+    <t>Αναπληρωτής Καθηγητής / Associate Professor</t>
+  </si>
+  <si>
+    <t>H312</t>
+  </si>
+  <si>
+    <t>H314</t>
+  </si>
+  <si>
+    <t>H316</t>
+  </si>
+  <si>
+    <t>K301</t>
+  </si>
+  <si>
+    <t>K302</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Υπολογιστικής Όρασης, Γραφικής και Ρομποτικής</t>
+  </si>
+  <si>
+    <t>Computational Vision, Graphics and Robotics Laboratory</t>
+  </si>
+  <si>
+    <t>K303</t>
+  </si>
+  <si>
+    <t>Αίθουσα Συναντήσεων (+K300 εκτυπωτής)</t>
+  </si>
+  <si>
+    <t>Meeting Room (+K300 printer)</t>
+  </si>
+  <si>
+    <t>K304</t>
+  </si>
+  <si>
+    <t>K305</t>
+  </si>
+  <si>
+    <t>Ιωάννης Τσαμαρδίνος</t>
+  </si>
+  <si>
+    <t>Ioannis Tsamardinos</t>
+  </si>
+  <si>
+    <t>K306</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Κυβερνοασφάλειας και Ιδιωτικότητας</t>
+  </si>
+  <si>
+    <t>Cybersecurity and Privacy Laboratory</t>
+  </si>
+  <si>
+    <t>K307</t>
+  </si>
+  <si>
+    <t>Δημήτρης Πλεξουσάκης</t>
+  </si>
+  <si>
+    <t>Dimitris Plexousakis</t>
+  </si>
+  <si>
+    <t>K308</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Δικτύων και Οπτικοποίησης Πληροφορίας</t>
+  </si>
+  <si>
+    <t>Networks and Information Visualization Laboratory</t>
+  </si>
+  <si>
+    <t>K309</t>
+  </si>
+  <si>
+    <t>Αντώνης Αργυρός</t>
+  </si>
+  <si>
+    <t>Antonis Argyros</t>
+  </si>
+  <si>
+    <t>K310</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Αλληλεπίδρασης Ανθρώπου-Υπολογιστή</t>
+  </si>
+  <si>
+    <t>Human-Computer Interaction Laboratory</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>Παναγιώτα Φατούρου</t>
+  </si>
+  <si>
+    <t>Panagiota Fatourou</t>
+  </si>
+  <si>
+    <t>K312</t>
+  </si>
+  <si>
+    <t>K313</t>
+  </si>
+  <si>
+    <t>Πάνος Τραχανίας</t>
+  </si>
+  <si>
+    <t>Panos Trahanias</t>
+  </si>
+  <si>
+    <t>K314</t>
+  </si>
+  <si>
+    <t>Εργαστήριο Αρχιτεκτονικής, Συστημάτων, και Γλωσσών Υπολογιστών</t>
+  </si>
+  <si>
+    <t>Computer Architecture, Systems, and Languages Laboratory</t>
+  </si>
+  <si>
+    <t>K315</t>
+  </si>
+  <si>
+    <t>Αντώνης Σαββίδης</t>
+  </si>
+  <si>
+    <t>Antonis Savidis</t>
+  </si>
+  <si>
+    <t>K316</t>
+  </si>
+  <si>
+    <t>K317</t>
+  </si>
+  <si>
+    <t>Ιωάννης Γ. Τόλλης</t>
+  </si>
+  <si>
+    <t>Ioannis G. Tollis</t>
+  </si>
+  <si>
+    <t>K319</t>
+  </si>
+  <si>
+    <t>Βασίλης Παπαευσταθίου</t>
+  </si>
+  <si>
+    <t>Vassilis Papaefstathiou</t>
+  </si>
+  <si>
+    <t>K321</t>
+  </si>
+  <si>
+    <t>Κωνσταντίνος Στεφανίδης</t>
+  </si>
+  <si>
+    <t>Constantine Stephanidis</t>
+  </si>
+  <si>
+    <t>K323</t>
+  </si>
+  <si>
+    <t>Βαγγέλης Μαρκάτος</t>
+  </si>
+  <si>
+    <t>Evangelos Markatos</t>
+  </si>
+  <si>
+    <t>K325</t>
+  </si>
+  <si>
+    <t>Άγγελος Μπίλας</t>
+  </si>
+  <si>
+    <t>Angelos Bilas</t>
+  </si>
+  <si>
+    <t>K327</t>
+  </si>
+  <si>
+    <t>Πολύβιος Πρατικάκης</t>
+  </si>
+  <si>
+    <t>Polyvios Pratikakis</t>
+  </si>
+  <si>
+    <t>K329</t>
+  </si>
+  <si>
+    <t>Μανόλης Γ. Η. Κατεβαίνης</t>
+  </si>
+  <si>
+    <t>Manolis G. H. Katevenis</t>
+  </si>
+  <si>
+    <t>AMFA</t>
+  </si>
+  <si>
+    <t>ΑΜΦ Α</t>
+  </si>
+  <si>
+    <t>Αμφιθέατρο Α</t>
+  </si>
+  <si>
+    <t>Auditorium A</t>
+  </si>
+  <si>
+    <t>AMFSO</t>
+  </si>
+  <si>
+    <t>ΑΜΦ Σ.Ο.</t>
+  </si>
+  <si>
+    <t>Αμφιθέατρο Σ.Ο.</t>
+  </si>
+  <si>
+    <t>Auditorium S.O.</t>
+  </si>
+  <si>
+    <t>AMFA_DOWN</t>
+  </si>
+  <si>
+    <t>AMFSO_DOWN</t>
+  </si>
+  <si>
+    <t>Anagnostiria</t>
+  </si>
+  <si>
+    <t>Study Rooms</t>
+  </si>
+  <si>
+    <t>Αναγνωστήρια</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K1 Corridor</t>
+  </si>
+  <si>
+    <t>H210</t>
+  </si>
+  <si>
+    <t>Lecture Room - H4</t>
+  </si>
+  <si>
+    <t>H210a</t>
+  </si>
+  <si>
+    <t>H210b</t>
+  </si>
+  <si>
+    <r>
+      <t>19)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Το αρχείο πρέπει να είναι </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>δεν έχει παράξενα σύμβολα</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>CSV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> και η </t>
     </r>
     <r>
       <rPr>
@@ -585,74 +1833,88 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>μετά</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> την </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>εξαγωγή</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>τελική του ονομασία</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> να είναι </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>15)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>ΔΕΝ ΑΛΛΑΖΟΥΜΕ ΠΡΙΝ ΤΗΝ ΓΡΑΜΜΗ 21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>. Επεξεργασία στις γραμμές από την ΓΡΑΜΜΗ 21 και κάτω.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">DoorNames.csv </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>(το</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> μπορεί να μην φαίνεται αλλά αυτήν την κατάληξη θα έχει το αρχείο).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>ΔΕΝ ΑΛΛΑΖΟΥΜΕ ΠΡΙΝ ΚΑΙ ΤΗΝ ΓΡΑΜΜΗ 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>. Επεξεργασία στις γραμμές από την ΓΡΑΜΜΗ 22 και κάτω.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>16)</t>
     </r>
     <r>
@@ -675,78 +1937,89 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> όταν κάνετε </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>εξαγωγή</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">, σιγουρευτείτε ότι το αρχείο ονομάζεται </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>17)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Κάνουμε </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>εξαγωγή</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> αρχείο </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>CSV-Υπολογιστικό Φύλλο με UTF-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">DoorNames.csv </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>(το</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>18)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> μπορεί να μην φαίνεται αλλά αυτήν την κατάληξη θα έχει το αρχείο).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Γίνεται να μείνουν πεδία/στήλες άδειες, δεν είναι υποχρεωτική η εισαγωγή πληροφορίας.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12)</t>
     </r>
     <r>
       <rPr>
@@ -755,15 +2028,15 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>ΥΠΟΧΡΕΩΤΙΚΑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> διαχωρισμένο με ','(ΚΟΜΜΑ): </t>
+      <t>Πάντα ελέγχουμε όταν κάνουμε αλλαγέ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">ς, </t>
     </r>
     <r>
       <rPr>
@@ -772,1337 +2045,57 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t>Εξαγωγή/Αποθήκευση Ως</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>μετά</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> από ένα </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>CSV UTF-8 (Comma delimited)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>5-10λεπτο</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">, ότι οι αλλαγές </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>19)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Το αρχείο πρέπει να είναι </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>CSV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> και η </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>τελική του ονομασία</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> να είναι                           </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
-      <t>DoorNames.csv</t>
-    </r>
-  </si>
-  <si>
-    <t>!!!!!ΔΕΝ ΑΛΛΑΖΟΥΜΕ ΑΥΤΗΝ ΤΗΝ ΣΤΗΛΗ!!!!!</t>
-  </si>
-  <si>
-    <t>ΑΡΙΘΜΟΣ ΑΙΘΟΥΣΑΣ</t>
-  </si>
-  <si>
-    <t>ΟΝΟΜΑ ΑΙΘΟΥΣΑΣ</t>
-  </si>
-  <si>
-    <t>ΠΑΡΑΠΑΝΩ ΠΛΗΡΟΦΟΡΙΕΣ</t>
-  </si>
-  <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Τηλεπικοινωνιών και Δικτύων</t>
-  </si>
-  <si>
-    <t>Networking and Communications Lab</t>
-  </si>
-  <si>
-    <t>A103</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Ψηφιακής Σχεδίασης</t>
-  </si>
-  <si>
-    <t>Digital Design Lab - 2</t>
-  </si>
-  <si>
-    <t>A105</t>
-  </si>
-  <si>
-    <t>A107</t>
-  </si>
-  <si>
-    <t>Digital Design Lab - 1</t>
-  </si>
-  <si>
-    <t>A109</t>
-  </si>
-  <si>
-    <t>A111</t>
-  </si>
-  <si>
-    <t>Αίθουσα Διδασκαλίας</t>
-  </si>
-  <si>
-    <t>Lecture Room - A1</t>
-  </si>
-  <si>
-    <t>A113</t>
-  </si>
-  <si>
-    <t>A115</t>
-  </si>
-  <si>
-    <t>&lt;color=#006BFF&gt;Τμήμα Επιστήμης και Μηχανικής Υλικών / Department of Materials Science and Engineering&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Αίθουσα Διδασκαλίας / Lecture Room - A2</t>
-  </si>
-  <si>
-    <t>A117</t>
-  </si>
-  <si>
-    <t>A119</t>
-  </si>
-  <si>
-    <t>Lecture Room - A3</t>
-  </si>
-  <si>
-    <t>A121</t>
-  </si>
-  <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>Lecture Room - A4</t>
-  </si>
-  <si>
-    <t>A125</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>B102</t>
-  </si>
-  <si>
-    <t>Εκπαιδευτικό Εργαστήριο Η/Υ</t>
-  </si>
-  <si>
-    <t>Computer Room</t>
-  </si>
-  <si>
-    <t>B103</t>
-  </si>
-  <si>
-    <t>B104</t>
-  </si>
-  <si>
-    <t>B105</t>
-  </si>
-  <si>
-    <t>B106</t>
-  </si>
-  <si>
-    <t>Αίθουσα Διδασκαλίας με Η/Υ</t>
-  </si>
-  <si>
-    <t>Lecture Room</t>
-  </si>
-  <si>
-    <t>B107</t>
-  </si>
-  <si>
-    <t>B108</t>
-  </si>
-  <si>
-    <t>B109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μεταπτυχιακοί Φοιτητές / Graduate Students </t>
-  </si>
-  <si>
-    <t>B110</t>
-  </si>
-  <si>
-    <t>B111</t>
-  </si>
-  <si>
-    <t>B112</t>
-  </si>
-  <si>
-    <t>B113</t>
-  </si>
-  <si>
-    <t>B115</t>
-  </si>
-  <si>
-    <t>E101</t>
-  </si>
-  <si>
-    <t>E102</t>
-  </si>
-  <si>
-    <t>E103</t>
-  </si>
-  <si>
-    <t>E104</t>
-  </si>
-  <si>
-    <t>E105</t>
-  </si>
-  <si>
-    <t>E106</t>
-  </si>
-  <si>
-    <t>E108</t>
-  </si>
-  <si>
-    <t>E110</t>
-  </si>
-  <si>
-    <t>E112</t>
-  </si>
-  <si>
-    <t>H101</t>
-  </si>
-  <si>
-    <t>H102</t>
-  </si>
-  <si>
-    <t>H103</t>
-  </si>
-  <si>
-    <t>H104</t>
-  </si>
-  <si>
-    <t>Αποθήκη</t>
-  </si>
-  <si>
-    <t>Storage Room</t>
-  </si>
-  <si>
-    <t>H105</t>
-  </si>
-  <si>
-    <t>Κυλικείο</t>
-  </si>
-  <si>
-    <t>Cafeteria</t>
-  </si>
-  <si>
-    <t>H106</t>
-  </si>
-  <si>
-    <t>Σύλλογος Φοιτητών ΤΕΥ</t>
-  </si>
-  <si>
-    <t>CSD Students' Association</t>
-  </si>
-  <si>
-    <t>H107</t>
-  </si>
-  <si>
-    <t>H108</t>
-  </si>
-  <si>
-    <t>Τεχνική Υποστήριξη</t>
-  </si>
-  <si>
-    <t>Technical Support</t>
-  </si>
-  <si>
-    <t>H109</t>
-  </si>
-  <si>
-    <t>Front Door</t>
-  </si>
-  <si>
-    <t>H109b</t>
-  </si>
-  <si>
-    <t>Back Door</t>
-  </si>
-  <si>
-    <t>H110</t>
-  </si>
-  <si>
-    <t>Αποθήκη Υλικού</t>
-  </si>
-  <si>
-    <t>Materials Storage</t>
-  </si>
-  <si>
-    <t>H112</t>
-  </si>
-  <si>
-    <t>H114</t>
-  </si>
-  <si>
-    <t>B201</t>
-  </si>
-  <si>
-    <t>ΕΔΙΠ: Σταμάτης Σταματιάδης / Teaching Personnel: Stamatis Stamatiadis</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
-    <t>Αίθουσα Μηχανών</t>
-  </si>
-  <si>
-    <t>Machine Room</t>
-  </si>
-  <si>
-    <t>B203</t>
-  </si>
-  <si>
-    <t>ΕΔΙΠ: Εμμανουήλ Τυλλιανάκης / Teaching Personnel: Emmanuel Tyllianakis</t>
-  </si>
-  <si>
-    <t>B204</t>
-  </si>
-  <si>
-    <t>B205</t>
-  </si>
-  <si>
-    <t>Καθηγητής: Γεώργιος Κιοσέογλου / Professor: George Kioseoglou</t>
-  </si>
-  <si>
-    <t>B206</t>
-  </si>
-  <si>
-    <t>Συντήρηση</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>B207</t>
-  </si>
-  <si>
-    <t>Αναπληρωτής Καθηγητής: Ιωάννης Ρεμεδιάκης / Associate Professor: Ioannis Remediakis</t>
-  </si>
-  <si>
-    <t>B208</t>
-  </si>
-  <si>
-    <t>Μεταπτυχιακό Σπουδαστήριο</t>
-  </si>
-  <si>
-    <t>Graduate Students</t>
-  </si>
-  <si>
-    <t>B209</t>
-  </si>
-  <si>
-    <t>Αναπληρωτής Καθηγητής: Γεώργιος Κοπιδάκης / Associate Professor: George Kopidakis</t>
-  </si>
-  <si>
-    <t>B210</t>
-  </si>
-  <si>
-    <t>B211</t>
-  </si>
-  <si>
-    <t>Αναπληρωτής Καθηγητής: Ανδρέας Λυμπεράτος / Associate Professor: Andreas Lyberatos</t>
-  </si>
-  <si>
-    <t>B212</t>
-  </si>
-  <si>
-    <t>B213</t>
-  </si>
-  <si>
-    <t>Καθηγήτρια:Μαρία Καφεσάκη , Αναπληρωτής Καθηγητής: Δημήτριος Παπάζογλου / Professor: Maria Kafesaki , Associate Professor: Dimitrios Papazoglou</t>
-  </si>
-  <si>
-    <t>B214</t>
-  </si>
-  <si>
-    <t>B215</t>
-  </si>
-  <si>
-    <t>Γιάννης Σουρλαντζής</t>
-  </si>
-  <si>
-    <t>Yannis Sourlantzis</t>
-  </si>
-  <si>
-    <t>B217</t>
-  </si>
-  <si>
-    <t>Νίκος Κρασσάς</t>
-  </si>
-  <si>
-    <t>Nikolas Krassas</t>
-  </si>
-  <si>
-    <t>B219</t>
-  </si>
-  <si>
-    <t>Παναγιώτης Βαβίλης</t>
-  </si>
-  <si>
-    <t>Panagiotis Vavilis</t>
-  </si>
-  <si>
-    <t>B221</t>
-  </si>
-  <si>
-    <t>B223</t>
-  </si>
-  <si>
-    <t>B225</t>
-  </si>
-  <si>
-    <t>B227</t>
-  </si>
-  <si>
-    <t>Επίκουρος Καθηγητής: Δημήτριος Τζεράνης / Assistant Professor: Dimitrios Tzeranis</t>
-  </si>
-  <si>
-    <t>B229</t>
-  </si>
-  <si>
-    <t>Μαίρη Μαμαλάκη</t>
-  </si>
-  <si>
-    <t>Maria Mamalaki</t>
-  </si>
-  <si>
-    <t>E201</t>
-  </si>
-  <si>
-    <t>Γραμματεία Προπτυχιακών Σπουδών / Office of Undergraduate Studies</t>
-  </si>
-  <si>
-    <t>Στέλλα Συντιχάκη , Δέσποινα Χατζάκη / Stella Syntichaki , Despoina Chatzaki</t>
-  </si>
-  <si>
-    <t>E202</t>
-  </si>
-  <si>
-    <t>Γραμματεία Μεταπτυχιακών Σπουδών</t>
-  </si>
-  <si>
-    <t>Office of Graduate Studies</t>
-  </si>
-  <si>
-    <t>E203</t>
-  </si>
-  <si>
-    <t>Θυρίδες - Φωτοτυπικό</t>
-  </si>
-  <si>
-    <t>Copy Room</t>
-  </si>
-  <si>
-    <t>E204</t>
-  </si>
-  <si>
-    <t>Γραφείο Υποψήφιων Διδακτόρων</t>
-  </si>
-  <si>
-    <t>Office of Doctoral Candidates</t>
-  </si>
-  <si>
-    <t>E205</t>
-  </si>
-  <si>
-    <t>Τμήμα Επιστήμης Υπολογιστών - Αρχείο</t>
-  </si>
-  <si>
-    <t>Department of Computer Science - Registry</t>
-  </si>
-  <si>
-    <t>E206</t>
-  </si>
-  <si>
-    <t>Νόνη Ριζοπούλου</t>
-  </si>
-  <si>
-    <t>Noni Rizopoulou</t>
-  </si>
-  <si>
-    <t>E207</t>
-  </si>
-  <si>
-    <t>E208</t>
-  </si>
-  <si>
-    <t>ΑΙΘΟΥΣΑ ΣΥΝΕΔΡΙΩΝ - ΜΟΝΑΔΑ ΙΣΟΤΙΜΗΣ ΠΡΟΣΒΑΣΗΣ</t>
-  </si>
-  <si>
-    <t>Conference Room - Peer Access Unit</t>
-  </si>
-  <si>
-    <t>E210</t>
-  </si>
-  <si>
-    <t>Παύλος Μαθιουδάκης</t>
-  </si>
-  <si>
-    <t>Pavlos Mathioudakis</t>
-  </si>
-  <si>
-    <t>H201</t>
-  </si>
-  <si>
-    <t>Ομάδα Καθαριότητας</t>
-  </si>
-  <si>
-    <t>Cleaning Team</t>
-  </si>
-  <si>
-    <t>H202</t>
-  </si>
-  <si>
-    <t>Lecture Room - H1</t>
-  </si>
-  <si>
-    <t>H203</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Επεξεργασίας Δεδομένων / Data Processing Laboratory</t>
-  </si>
-  <si>
-    <t>Athanasia Margetousaki, Harria Papadaki, Maria Vitsaki, Glykeria Fragioudaki</t>
-  </si>
-  <si>
-    <t>H204</t>
-  </si>
-  <si>
-    <t>H205</t>
-  </si>
-  <si>
-    <t>Ομάδα Δαίδαλος - 0xdeadalu5</t>
-  </si>
-  <si>
-    <t>CTF(Capture The Flag) Team</t>
-  </si>
-  <si>
-    <t>H206</t>
-  </si>
-  <si>
-    <t>Lecture Rooom - H2</t>
-  </si>
-  <si>
-    <t>H208</t>
-  </si>
-  <si>
-    <t>Lecture Room - H3</t>
-  </si>
-  <si>
-    <t>H212</t>
-  </si>
-  <si>
-    <t>H214</t>
-  </si>
-  <si>
-    <t>H216</t>
-  </si>
-  <si>
-    <t>K201</t>
-  </si>
-  <si>
-    <t>Αίθουσα Συναντήσεων</t>
-  </si>
-  <si>
-    <t>Meeting Room</t>
-  </si>
-  <si>
-    <t>K202</t>
-  </si>
-  <si>
-    <t>Αίθουσα Τηλεκπαίδευσης</t>
-  </si>
-  <si>
-    <t>Distance Learning Classroom</t>
-  </si>
-  <si>
-    <t>K203</t>
-  </si>
-  <si>
-    <t>Γιώργος Βιτσάκης / Giorgos Vitsakis</t>
-  </si>
-  <si>
-    <t>K204</t>
-  </si>
-  <si>
-    <t>K205</t>
-  </si>
-  <si>
-    <t>Γρηγόρης Τζανοδασκαλάκης / Grigoris Tzanodaskalakis</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>K207</t>
-  </si>
-  <si>
-    <t>Μιχάλης Μουνταντωνάκης</t>
-  </si>
-  <si>
-    <t>Michalis Mountantonakis</t>
-  </si>
-  <si>
-    <t>K208</t>
-  </si>
-  <si>
-    <t>K209</t>
-  </si>
-  <si>
-    <t>Επισκέπτης Καθηγητής</t>
-  </si>
-  <si>
-    <t>Visiting Faculty</t>
-  </si>
-  <si>
-    <t>K210</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Ανάλυσης Δεδομένων</t>
-  </si>
-  <si>
-    <t>Data Analysis Laboratory</t>
-  </si>
-  <si>
-    <t>K211</t>
-  </si>
-  <si>
-    <t>Φραγκιαδάκης Γιάννης</t>
-  </si>
-  <si>
-    <t>Fragkiadakis Yannis</t>
-  </si>
-  <si>
-    <t>K213</t>
-  </si>
-  <si>
-    <t>K212</t>
-  </si>
-  <si>
-    <t>K214</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Παράλληλου και Κατανεμημένου Υπολογισμού</t>
-  </si>
-  <si>
-    <t>Parallel and Distributed Computing Laboratory</t>
-  </si>
-  <si>
-    <t>K215</t>
-  </si>
-  <si>
-    <t>Γιώργος Παπαγιαννάκης</t>
-  </si>
-  <si>
-    <t>George Papagiannakis</t>
-  </si>
-  <si>
-    <t>K216</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Μηχανικής Πληροφοριακών και Γνωσιακών Συστημάτων / Information and Knowledge Systems Engineering Laboratory</t>
-  </si>
-  <si>
-    <t>Εργαστήριο 3D Εκτύπωσης και Κατασκευών / 3D Printing &amp; Makers' Lab</t>
-  </si>
-  <si>
-    <t>K217</t>
-  </si>
-  <si>
-    <t>Αίθουσα Συναντήσεων (+ Καρέκλες &amp; Κ200 εκτυπωτής)</t>
-  </si>
-  <si>
-    <t>Meeting Room (+ Chairs &amp; Κ200 εκτυπωτής)</t>
-  </si>
-  <si>
-    <t>K218</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Μηχανικής Πληροφοριακών και Γνωσιακών Συστημάτων</t>
-  </si>
-  <si>
-    <t>Information and Knowledge Systems Engineering Laboratory</t>
-  </si>
-  <si>
-    <t>K219</t>
-  </si>
-  <si>
-    <t>K220</t>
-  </si>
-  <si>
-    <t>K221</t>
-  </si>
-  <si>
-    <t>Γιάννης Τζίτζικας</t>
-  </si>
-  <si>
-    <t>Yannis Tzitzikas</t>
-  </si>
-  <si>
-    <t>K223</t>
-  </si>
-  <si>
-    <t>Μάριος Πιτικάκης</t>
-  </si>
-  <si>
-    <t>Marios Pitikakis</t>
-  </si>
-  <si>
-    <t>K225</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Ανάλυσης Δεδομένων / Data Analysis Laboratory</t>
-  </si>
-  <si>
-    <t>Μεταδιδακτορικοί Ερευνητές / Postdoctoral Researchers</t>
-  </si>
-  <si>
-    <t>K227</t>
-  </si>
-  <si>
-    <t>Γραμματεία , Μεταδιδακτορικός Ερευνητής / Secretariat , Postdoctoral Researcher</t>
-  </si>
-  <si>
-    <t>B301</t>
-  </si>
-  <si>
-    <t>B302</t>
-  </si>
-  <si>
-    <t>B303</t>
-  </si>
-  <si>
-    <t>B304</t>
-  </si>
-  <si>
-    <t>Τσαγκατάκης Γρηγόριος</t>
-  </si>
-  <si>
-    <t>Tsagkatakis Grigorios</t>
-  </si>
-  <si>
-    <t>B305</t>
-  </si>
-  <si>
-    <t>B306</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Επεξεργασίας Σημάτων και Εικόνων</t>
-  </si>
-  <si>
-    <t>Signal and Image Processing Laboratory</t>
-  </si>
-  <si>
-    <t>B307</t>
-  </si>
-  <si>
-    <t>B308</t>
-  </si>
-  <si>
-    <t>B309</t>
-  </si>
-  <si>
-    <t>Πάνος Τσακαλίδης</t>
-  </si>
-  <si>
-    <t>Panos Tsakalides</t>
-  </si>
-  <si>
-    <t>B310</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Δικτύων και Κινητών Υπολογιστικών Συστημάτων</t>
-  </si>
-  <si>
-    <t>B311</t>
-  </si>
-  <si>
-    <t>Λεωνίδης Αστέριος</t>
-  </si>
-  <si>
-    <t>Leonidis Asterios</t>
-  </si>
-  <si>
-    <t>B312</t>
-  </si>
-  <si>
-    <t>B313</t>
-  </si>
-  <si>
-    <t>Θανάσης Μουχτάρης</t>
-  </si>
-  <si>
-    <t>Thanasis Mouchtaris</t>
-  </si>
-  <si>
-    <t>B314</t>
-  </si>
-  <si>
-    <t>Αίθουσα Συνεδριάσεων Γενικής Συνέλευσης</t>
-  </si>
-  <si>
-    <t>Faculty Meeting Room</t>
-  </si>
-  <si>
-    <t>B315</t>
-  </si>
-  <si>
-    <t>Μαρία Παπαδοπούλη</t>
-  </si>
-  <si>
-    <t>Maria Papadopouli</t>
-  </si>
-  <si>
-    <t>B316</t>
-  </si>
-  <si>
-    <t>B317</t>
-  </si>
-  <si>
-    <t>Ξενοφώντας Δημητρόπουλος</t>
-  </si>
-  <si>
-    <t>Xenofontas Dimitropoulos</t>
-  </si>
-  <si>
-    <t>B318</t>
-  </si>
-  <si>
-    <t>B319</t>
-  </si>
-  <si>
-    <t>Γεώργιος Τζιρίτας</t>
-  </si>
-  <si>
-    <t>Georgios Tziritas</t>
-  </si>
-  <si>
-    <t>B320</t>
-  </si>
-  <si>
-    <t>B321</t>
-  </si>
-  <si>
-    <t>B322</t>
-  </si>
-  <si>
-    <t>B323</t>
-  </si>
-  <si>
-    <t>B325</t>
-  </si>
-  <si>
-    <t>B327</t>
-  </si>
-  <si>
-    <t>Απόστολος Τραγανίτης</t>
-  </si>
-  <si>
-    <t>Apostolos Traganitis</t>
-  </si>
-  <si>
-    <t>B329</t>
-  </si>
-  <si>
-    <t>Νικόλαος Κομοντάκης</t>
-  </si>
-  <si>
-    <t>Nikolaos Komontakis</t>
-  </si>
-  <si>
-    <t>E301</t>
-  </si>
-  <si>
-    <t>Επιστημονικός Συνεργάτης / Visiting Scientist</t>
-  </si>
-  <si>
-    <t>Νικόλαος Τσατσάκης / Nikolaos Tsatsakis</t>
-  </si>
-  <si>
-    <t>E302</t>
-  </si>
-  <si>
-    <t>E303</t>
-  </si>
-  <si>
-    <t>Μαρίνα Μπιτσάκη &amp; Μάνος Καμαριανάκης</t>
-  </si>
-  <si>
-    <t>Marina Bitsaki &amp; Manos Kamarianakis</t>
-  </si>
-  <si>
-    <t>E304</t>
-  </si>
-  <si>
-    <t>Προϊσταμένη Γραμματείας / Administration</t>
-  </si>
-  <si>
-    <t>Ρένα Καλαϊτζάκη / Rena Kalaitzaki</t>
-  </si>
-  <si>
-    <t>E305</t>
-  </si>
-  <si>
-    <t>Μαρία Σαβιολάκη</t>
-  </si>
-  <si>
-    <t>Maria Saviolaki</t>
-  </si>
-  <si>
-    <t>E306</t>
-  </si>
-  <si>
-    <t>Πρόεδρος / Chair</t>
-  </si>
-  <si>
-    <t>Κωνσταντίνος Μαγκούτης / Kostas Magoutis</t>
-  </si>
-  <si>
-    <t>E307</t>
-  </si>
-  <si>
-    <t>Άννα Σφακιανάκη</t>
-  </si>
-  <si>
-    <t>Anna Sfakianaki</t>
-  </si>
-  <si>
-    <t>E308</t>
-  </si>
-  <si>
-    <t>E309</t>
-  </si>
-  <si>
-    <t>Αίθουσα Σεμιναρίων</t>
-  </si>
-  <si>
-    <t>Seminar Room - E2</t>
-  </si>
-  <si>
-    <t>E310</t>
-  </si>
-  <si>
-    <t>E311</t>
-  </si>
-  <si>
-    <t>E313</t>
-  </si>
-  <si>
-    <t>Seminar Room - E1</t>
-  </si>
-  <si>
-    <t>E315</t>
-  </si>
-  <si>
-    <t>E317</t>
-  </si>
-  <si>
-    <t>Αίθουσα Ελέγχου</t>
-  </si>
-  <si>
-    <t>Control Room</t>
-  </si>
-  <si>
-    <t>H301</t>
-  </si>
-  <si>
-    <t>Μεταδιδακτορικοί Φοιτητές</t>
-  </si>
-  <si>
-    <t>Postgraduate Students</t>
-  </si>
-  <si>
-    <t>H302</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Πολυμέσων - Επεξεργασία Σήματος Φωνής</t>
-  </si>
-  <si>
-    <t>Multimedia Informatics Lab (MIL) Speech Signal Processing</t>
-  </si>
-  <si>
-    <t>H303</t>
-  </si>
-  <si>
-    <t>Επισκέπτης Καθηγητής / Visiting Faculty</t>
-  </si>
-  <si>
-    <t>Γεώργιος Καφεντζής / Georgios Kafentzis</t>
-  </si>
-  <si>
-    <t>H304</t>
-  </si>
-  <si>
-    <t>H305</t>
-  </si>
-  <si>
-    <t>Γιάννης Στυλιανού</t>
-  </si>
-  <si>
-    <t>Yannis Stylianou</t>
-  </si>
-  <si>
-    <t>H306</t>
-  </si>
-  <si>
-    <t>ΠΛΑΤΩΝ - Εργαστήριο Γλωσσών και Εργαλείων Προγραμματισμού</t>
-  </si>
-  <si>
-    <t>PLATO - Programming Languages and Tools Laboratory</t>
-  </si>
-  <si>
-    <t>H307</t>
-  </si>
-  <si>
-    <t>Επισκέπτης Καθηγητής / Visiting Professor</t>
-  </si>
-  <si>
-    <t>Νίκος Σιαφάκας / Nikos Siafakas</t>
-  </si>
-  <si>
-    <t>H308</t>
-  </si>
-  <si>
-    <t>H309</t>
-  </si>
-  <si>
-    <t>Χαρίδημος Κονδυλάκης</t>
-  </si>
-  <si>
-    <t>Haridimos Kondylakis</t>
-  </si>
-  <si>
-    <t>H310</t>
-  </si>
-  <si>
-    <t>H311</t>
-  </si>
-  <si>
-    <t>Αναπληρωτής Καθηγητής / Associate Professor</t>
-  </si>
-  <si>
-    <t>H312</t>
-  </si>
-  <si>
-    <t>H314</t>
-  </si>
-  <si>
-    <t>H316</t>
-  </si>
-  <si>
-    <t>K301</t>
-  </si>
-  <si>
-    <t>K302</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Υπολογιστικής Όρασης, Γραφικής και Ρομποτικής</t>
-  </si>
-  <si>
-    <t>Computational Vision, Graphics and Robotics Laboratory</t>
-  </si>
-  <si>
-    <t>K303</t>
-  </si>
-  <si>
-    <t>Αίθουσα Συναντήσεων (+K300 εκτυπωτής)</t>
-  </si>
-  <si>
-    <t>Meeting Room (+K300 printer)</t>
-  </si>
-  <si>
-    <t>K304</t>
-  </si>
-  <si>
-    <t>K305</t>
-  </si>
-  <si>
-    <t>Ιωάννης Τσαμαρδίνος</t>
-  </si>
-  <si>
-    <t>Ioannis Tsamardinos</t>
-  </si>
-  <si>
-    <t>K306</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Κυβερνοασφάλειας και Ιδιωτικότητας</t>
-  </si>
-  <si>
-    <t>Cybersecurity and Privacy Laboratory</t>
-  </si>
-  <si>
-    <t>K307</t>
-  </si>
-  <si>
-    <t>Δημήτρης Πλεξουσάκης</t>
-  </si>
-  <si>
-    <t>Dimitris Plexousakis</t>
-  </si>
-  <si>
-    <t>K308</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Δικτύων και Οπτικοποίησης Πληροφορίας</t>
-  </si>
-  <si>
-    <t>Networks and Information Visualization Laboratory</t>
-  </si>
-  <si>
-    <t>K309</t>
-  </si>
-  <si>
-    <t>Αντώνης Αργυρός</t>
-  </si>
-  <si>
-    <t>Antonis Argyros</t>
-  </si>
-  <si>
-    <t>K310</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Αλληλεπίδρασης Ανθρώπου-Υπολογιστή</t>
-  </si>
-  <si>
-    <t>Human-Computer Interaction Laboratory</t>
-  </si>
-  <si>
-    <t>K311</t>
-  </si>
-  <si>
-    <t>Παναγιώτα Φατούρου</t>
-  </si>
-  <si>
-    <t>Panagiota Fatourou</t>
-  </si>
-  <si>
-    <t>K312</t>
-  </si>
-  <si>
-    <t>K313</t>
-  </si>
-  <si>
-    <t>Πάνος Τραχανίας</t>
-  </si>
-  <si>
-    <t>Panos Trahanias</t>
-  </si>
-  <si>
-    <t>K314</t>
-  </si>
-  <si>
-    <t>Εργαστήριο Αρχιτεκτονικής, Συστημάτων, και Γλωσσών Υπολογιστών</t>
-  </si>
-  <si>
-    <t>Computer Architecture, Systems, and Languages Laboratory</t>
-  </si>
-  <si>
-    <t>K315</t>
-  </si>
-  <si>
-    <t>Αντώνης Σαββίδης</t>
-  </si>
-  <si>
-    <t>Antonis Savidis</t>
-  </si>
-  <si>
-    <t>K316</t>
-  </si>
-  <si>
-    <t>K317</t>
-  </si>
-  <si>
-    <t>Ιωάννης Γ. Τόλλης</t>
-  </si>
-  <si>
-    <t>Ioannis G. Tollis</t>
-  </si>
-  <si>
-    <t>K319</t>
-  </si>
-  <si>
-    <t>Βασίλης Παπαευσταθίου</t>
-  </si>
-  <si>
-    <t>Vassilis Papaefstathiou</t>
-  </si>
-  <si>
-    <t>K321</t>
-  </si>
-  <si>
-    <t>Κωνσταντίνος Στεφανίδης</t>
-  </si>
-  <si>
-    <t>Constantine Stephanidis</t>
-  </si>
-  <si>
-    <t>K323</t>
-  </si>
-  <si>
-    <t>Βαγγέλης Μαρκάτος</t>
-  </si>
-  <si>
-    <t>Evangelos Markatos</t>
-  </si>
-  <si>
-    <t>K325</t>
-  </si>
-  <si>
-    <t>Άγγελος Μπίλας</t>
-  </si>
-  <si>
-    <t>Angelos Bilas</t>
-  </si>
-  <si>
-    <t>K327</t>
-  </si>
-  <si>
-    <t>Πολύβιος Πρατικάκης</t>
-  </si>
-  <si>
-    <t>Polyvios Pratikakis</t>
-  </si>
-  <si>
-    <t>K329</t>
-  </si>
-  <si>
-    <t>Μανόλης Γ. Η. Κατεβαίνης</t>
-  </si>
-  <si>
-    <t>Manolis G. H. Katevenis</t>
-  </si>
-  <si>
-    <t>AMFA</t>
-  </si>
-  <si>
-    <t>ΑΜΦ Α</t>
-  </si>
-  <si>
-    <t>Αμφιθέατρο Α</t>
-  </si>
-  <si>
-    <t>Auditorium A</t>
-  </si>
-  <si>
-    <t>AMFSO</t>
-  </si>
-  <si>
-    <t>ΑΜΦ Σ.Ο.</t>
-  </si>
-  <si>
-    <t>Αμφιθέατρο Σ.Ο.</t>
-  </si>
-  <si>
-    <t>Auditorium S.O.</t>
-  </si>
-  <si>
-    <t>AMFA_DOWN</t>
-  </si>
-  <si>
-    <t>AMFSO_DOWN</t>
-  </si>
-  <si>
-    <t>Anagnostiria</t>
-  </si>
-  <si>
-    <t>Study Rooms</t>
-  </si>
-  <si>
-    <t>Αναγνωστήρια</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K1 Corridor</t>
-  </si>
-  <si>
-    <t>H210</t>
-  </si>
-  <si>
-    <t>Lecture Room - H4</t>
-  </si>
-  <si>
-    <t>H210a</t>
-  </si>
-  <si>
-    <t>H210b</t>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>ανανεώθηκαν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> στην ιστοσελίδα και δεν υπάρχουν προβλήματα. (Εννοείται ελέγχουμε μετά το ανέβασμα του αρχείου στο repository)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2177,6 +2170,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2274,7 +2290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2303,6 +2319,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2646,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2682,7 +2701,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2694,9 +2713,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2708,7 +2727,7 @@
     </row>
     <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2720,7 +2739,7 @@
     </row>
     <row r="6" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2732,7 +2751,7 @@
     </row>
     <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2744,7 +2763,7 @@
     </row>
     <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2756,7 +2775,7 @@
     </row>
     <row r="9" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2768,7 +2787,7 @@
     </row>
     <row r="10" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2780,7 +2799,7 @@
     </row>
     <row r="11" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2792,7 +2811,7 @@
     </row>
     <row r="12" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2804,7 +2823,7 @@
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2816,7 +2835,7 @@
     </row>
     <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2828,7 +2847,7 @@
     </row>
     <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2839,8 +2858,8 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
+      <c r="A16" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2851,8 +2870,8 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
+      <c r="A17" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2864,7 +2883,7 @@
     </row>
     <row r="18" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2876,7 +2895,7 @@
     </row>
     <row r="19" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2886,9 +2905,9 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
+    <row r="20" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2900,16 +2919,16 @@
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2917,2648 +2936,2648 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="10"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="9"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="9"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D147" s="9"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D149" s="9"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C158" s="12"/>
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="9"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="10"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="9"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="9"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C190" s="12"/>
       <c r="D190" s="10"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="9"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C192" s="12"/>
       <c r="D192" s="10"/>
     </row>
     <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C219" s="11"/>
       <c r="D219" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -5569,10 +5588,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="9"/>
